--- a/application/libraries/Modelos/Pauta_Modelo_Semestral.xlsx
+++ b/application/libraries/Modelos/Pauta_Modelo_Semestral.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Nº</t>
   </si>
@@ -450,13 +450,20 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>Visto 
+Director Geral Adjunto para Área Académica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe de Departamento: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -465,13 +472,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -503,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -563,11 +563,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,9 +637,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -596,19 +657,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,6 +678,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F129"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131:K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1053,66 +1147,68 @@
     <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
     <col min="4" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="8.83203125" style="10"/>
-    <col min="9" max="9" width="10.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="9"/>
+    <col min="9" max="9" width="10.5" style="9" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="A4" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1122,14 +1218,14 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1139,15 +1235,15 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1158,22 +1254,22 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1191,10 +1287,10 @@
       <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1244,27 +1340,27 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" ref="F11:F74" si="0">ROUND(AVERAGE(D11:E11),2)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" ref="H11:H74" si="1">ROUND((F11*0.6)+(G11*0.4),1)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -1278,27 +1374,27 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -1312,27 +1408,27 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="str">
@@ -1346,27 +1442,27 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <v>0</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -1380,27 +1476,27 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="str">
@@ -1414,27 +1510,27 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="str">
@@ -1448,27 +1544,27 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -1482,27 +1578,27 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -1516,27 +1612,27 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="str">
@@ -1550,27 +1646,27 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -1584,27 +1680,27 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -1618,27 +1714,27 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="str">
@@ -1652,27 +1748,27 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="str">
@@ -1686,27 +1782,27 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -1720,27 +1816,27 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -1754,27 +1850,27 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="str">
@@ -1788,27 +1884,27 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -1822,27 +1918,27 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="str">
@@ -1856,27 +1952,27 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -1890,27 +1986,27 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -1924,27 +2020,27 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -1958,27 +2054,27 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="str">
@@ -1992,27 +2088,27 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="str">
@@ -2026,27 +2122,27 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="str">
@@ -2060,27 +2156,27 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="str">
@@ -2094,27 +2190,27 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="str">
@@ -2128,27 +2224,27 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11">
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="str">
@@ -2162,27 +2258,27 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="str">
@@ -2196,27 +2292,27 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="str">
@@ -2230,27 +2326,27 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="str">
@@ -2264,27 +2360,27 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="str">
@@ -2298,27 +2394,27 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
         <v>0</v>
       </c>
       <c r="K42" s="2" t="str">
@@ -2332,27 +2428,27 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11">
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="str">
@@ -2366,27 +2462,27 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="str">
@@ -2400,27 +2496,27 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="str">
@@ -2434,27 +2530,27 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
         <v>0</v>
       </c>
       <c r="K46" s="2" t="str">
@@ -2468,27 +2564,27 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
         <v>0</v>
       </c>
       <c r="K47" s="2" t="str">
@@ -2502,27 +2598,27 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="str">
@@ -2536,27 +2632,27 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="11">
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10">
         <v>0</v>
       </c>
       <c r="K49" s="2" t="str">
@@ -2570,27 +2666,27 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11">
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
         <v>0</v>
       </c>
       <c r="K50" s="2" t="str">
@@ -2604,27 +2700,27 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0</v>
-      </c>
-      <c r="J51" s="11">
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
         <v>0</v>
       </c>
       <c r="K51" s="2" t="str">
@@ -2638,27 +2734,27 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="str">
@@ -2672,27 +2768,27 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
-      <c r="H53" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>0</v>
-      </c>
-      <c r="J53" s="11">
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10">
         <v>0</v>
       </c>
       <c r="K53" s="2" t="str">
@@ -2706,27 +2802,27 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="str">
@@ -2740,27 +2836,27 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-      <c r="J55" s="11">
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="str">
@@ -2774,27 +2870,27 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
         <v>0</v>
       </c>
       <c r="K56" s="2" t="str">
@@ -2808,27 +2904,27 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-      <c r="J57" s="11">
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10">
         <v>0</v>
       </c>
       <c r="K57" s="2" t="str">
@@ -2842,27 +2938,27 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
-        <v>0</v>
-      </c>
-      <c r="H58" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-      <c r="J58" s="11">
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10">
         <v>0</v>
       </c>
       <c r="K58" s="2" t="str">
@@ -2876,27 +2972,27 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11">
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="str">
@@ -2910,27 +3006,27 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="str">
@@ -2944,27 +3040,27 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="11">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="str">
@@ -2978,27 +3074,27 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="11">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-      <c r="J62" s="11">
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0</v>
+      </c>
+      <c r="J62" s="10">
         <v>0</v>
       </c>
       <c r="K62" s="2" t="str">
@@ -3012,27 +3108,27 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="11">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-      <c r="J63" s="11">
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
         <v>0</v>
       </c>
       <c r="K63" s="2" t="str">
@@ -3046,27 +3142,27 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="11">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>0</v>
-      </c>
-      <c r="J64" s="11">
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10">
         <v>0</v>
       </c>
       <c r="K64" s="2" t="str">
@@ -3080,27 +3176,27 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="11">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
         <v>0</v>
       </c>
       <c r="K65" s="2" t="str">
@@ -3114,27 +3210,27 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11">
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="str">
@@ -3148,27 +3244,27 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="11">
-        <v>0</v>
-      </c>
-      <c r="H67" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-      <c r="J67" s="11">
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0</v>
+      </c>
+      <c r="J67" s="10">
         <v>0</v>
       </c>
       <c r="K67" s="2" t="str">
@@ -3182,27 +3278,27 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="11">
-        <v>0</v>
-      </c>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-      <c r="F68" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0</v>
-      </c>
-      <c r="H68" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>0</v>
-      </c>
-      <c r="J68" s="11">
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10">
         <v>0</v>
       </c>
       <c r="K68" s="2" t="str">
@@ -3216,27 +3312,27 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="11">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="11">
-        <v>0</v>
-      </c>
-      <c r="H69" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-      <c r="J69" s="11">
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10">
         <v>0</v>
       </c>
       <c r="K69" s="2" t="str">
@@ -3250,27 +3346,27 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="11">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
-      <c r="H70" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>0</v>
-      </c>
-      <c r="J70" s="11">
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
         <v>0</v>
       </c>
       <c r="K70" s="2" t="str">
@@ -3284,27 +3380,27 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="11">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
-        <v>0</v>
-      </c>
-      <c r="H71" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>0</v>
-      </c>
-      <c r="J71" s="11">
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0</v>
+      </c>
+      <c r="J71" s="10">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="str">
@@ -3318,27 +3414,27 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0</v>
-      </c>
-      <c r="J72" s="11">
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
         <v>0</v>
       </c>
       <c r="K72" s="2" t="str">
@@ -3352,27 +3448,27 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="11">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11">
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
         <v>0</v>
       </c>
       <c r="K73" s="2" t="str">
@@ -3386,27 +3482,27 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="11">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-      <c r="J74" s="11">
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
         <v>0</v>
       </c>
       <c r="K74" s="2" t="str">
@@ -3420,27 +3516,27 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="11">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
         <f t="shared" ref="F75:F129" si="3">ROUND(AVERAGE(D75:E75),2)</f>
         <v>0</v>
       </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
         <f t="shared" ref="H75:H129" si="4">ROUND((F75*0.6)+(G75*0.4),1)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="11">
-        <v>0</v>
-      </c>
-      <c r="J75" s="11">
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
         <v>0</v>
       </c>
       <c r="K75" s="2" t="str">
@@ -3454,27 +3550,27 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-      <c r="J76" s="11">
+      <c r="I76" s="10">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
         <v>0</v>
       </c>
       <c r="K76" s="2" t="str">
@@ -3488,27 +3584,27 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="11">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="H77" s="11">
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I77" s="11">
-        <v>0</v>
-      </c>
-      <c r="J77" s="11">
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="str">
@@ -3522,27 +3618,27 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="12">
-        <v>0</v>
-      </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13">
+      <c r="D78" s="11">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G78" s="12">
-        <v>0</v>
-      </c>
-      <c r="H78" s="12">
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I78" s="12">
-        <v>0</v>
-      </c>
-      <c r="J78" s="12">
+      <c r="I78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="11">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="str">
@@ -3556,27 +3652,27 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" s="12">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13">
+      <c r="D79" s="11">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G79" s="12">
-        <v>0</v>
-      </c>
-      <c r="H79" s="12">
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I79" s="12">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="I79" s="11">
+        <v>0</v>
+      </c>
+      <c r="J79" s="11">
         <v>0</v>
       </c>
       <c r="K79" s="2" t="str">
@@ -3590,27 +3686,27 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="12">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="D80" s="11">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G80" s="12">
-        <v>0</v>
-      </c>
-      <c r="H80" s="12">
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I80" s="12">
-        <v>0</v>
-      </c>
-      <c r="J80" s="12">
+      <c r="I80" s="11">
+        <v>0</v>
+      </c>
+      <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="str">
@@ -3624,27 +3720,27 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="12">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-      <c r="H81" s="12">
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I81" s="12">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81" s="2" t="str">
@@ -3658,27 +3754,27 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="12">
-        <v>0</v>
-      </c>
-      <c r="E82" s="12">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
-        <v>0</v>
-      </c>
-      <c r="H82" s="12">
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I82" s="12">
-        <v>0</v>
-      </c>
-      <c r="J82" s="12">
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82" s="2" t="str">
@@ -3692,27 +3788,27 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="12">
-        <v>0</v>
-      </c>
-      <c r="E83" s="12">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="D83" s="11">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-      <c r="H83" s="12">
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I83" s="12">
-        <v>0</v>
-      </c>
-      <c r="J83" s="12">
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="str">
@@ -3726,27 +3822,27 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="12">
-        <v>0</v>
-      </c>
-      <c r="E84" s="12">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G84" s="12">
-        <v>0</v>
-      </c>
-      <c r="H84" s="12">
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I84" s="12">
-        <v>0</v>
-      </c>
-      <c r="J84" s="12">
+      <c r="I84" s="11">
+        <v>0</v>
+      </c>
+      <c r="J84" s="11">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="str">
@@ -3760,27 +3856,27 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="12">
-        <v>0</v>
-      </c>
-      <c r="E85" s="12">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G85" s="12">
-        <v>0</v>
-      </c>
-      <c r="H85" s="12">
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I85" s="12">
-        <v>0</v>
-      </c>
-      <c r="J85" s="12">
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11">
         <v>0</v>
       </c>
       <c r="K85" s="2" t="str">
@@ -3794,27 +3890,27 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="12">
-        <v>0</v>
-      </c>
-      <c r="E86" s="12">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="D86" s="11">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G86" s="12">
-        <v>0</v>
-      </c>
-      <c r="H86" s="12">
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I86" s="12">
-        <v>0</v>
-      </c>
-      <c r="J86" s="12">
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
         <v>0</v>
       </c>
       <c r="K86" s="2" t="str">
@@ -3828,27 +3924,27 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="12">
-        <v>0</v>
-      </c>
-      <c r="E87" s="12">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="D87" s="11">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G87" s="12">
-        <v>0</v>
-      </c>
-      <c r="H87" s="12">
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I87" s="12">
-        <v>0</v>
-      </c>
-      <c r="J87" s="12">
+      <c r="I87" s="11">
+        <v>0</v>
+      </c>
+      <c r="J87" s="11">
         <v>0</v>
       </c>
       <c r="K87" s="2" t="str">
@@ -3862,27 +3958,27 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="12">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G88" s="12">
-        <v>0</v>
-      </c>
-      <c r="H88" s="12">
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I88" s="12">
-        <v>0</v>
-      </c>
-      <c r="J88" s="12">
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
         <v>0</v>
       </c>
       <c r="K88" s="2" t="str">
@@ -3896,27 +3992,27 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13">
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G89" s="12">
-        <v>0</v>
-      </c>
-      <c r="H89" s="12">
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I89" s="12">
-        <v>0</v>
-      </c>
-      <c r="J89" s="12">
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89" s="2" t="str">
@@ -3930,27 +4026,27 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="12">
-        <v>0</v>
-      </c>
-      <c r="E90" s="12">
-        <v>0</v>
-      </c>
-      <c r="F90" s="13">
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G90" s="12">
-        <v>0</v>
-      </c>
-      <c r="H90" s="12">
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I90" s="12">
-        <v>0</v>
-      </c>
-      <c r="J90" s="12">
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90" s="2" t="str">
@@ -3964,27 +4060,27 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="12">
-        <v>0</v>
-      </c>
-      <c r="E91" s="12">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="D91" s="11">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
-        <v>0</v>
-      </c>
-      <c r="H91" s="12">
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I91" s="12">
-        <v>0</v>
-      </c>
-      <c r="J91" s="12">
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
         <v>0</v>
       </c>
       <c r="K91" s="2" t="str">
@@ -3998,27 +4094,27 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="12">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13">
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G92" s="12">
-        <v>0</v>
-      </c>
-      <c r="H92" s="12">
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I92" s="12">
-        <v>0</v>
-      </c>
-      <c r="J92" s="12">
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
         <v>0</v>
       </c>
       <c r="K92" s="2" t="str">
@@ -4032,27 +4128,27 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="12">
-        <v>0</v>
-      </c>
-      <c r="E93" s="12">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13">
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G93" s="12">
-        <v>0</v>
-      </c>
-      <c r="H93" s="12">
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I93" s="12">
-        <v>0</v>
-      </c>
-      <c r="J93" s="12">
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
         <v>0</v>
       </c>
       <c r="K93" s="2" t="str">
@@ -4066,27 +4162,27 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="12">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G94" s="12">
-        <v>0</v>
-      </c>
-      <c r="H94" s="12">
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I94" s="12">
-        <v>0</v>
-      </c>
-      <c r="J94" s="12">
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
         <v>0</v>
       </c>
       <c r="K94" s="2" t="str">
@@ -4100,27 +4196,27 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="12">
-        <v>0</v>
-      </c>
-      <c r="E95" s="12">
-        <v>0</v>
-      </c>
-      <c r="F95" s="13">
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G95" s="12">
-        <v>0</v>
-      </c>
-      <c r="H95" s="12">
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I95" s="12">
-        <v>0</v>
-      </c>
-      <c r="J95" s="12">
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
         <v>0</v>
       </c>
       <c r="K95" s="2" t="str">
@@ -4134,27 +4230,27 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="12">
-        <v>0</v>
-      </c>
-      <c r="E96" s="12">
-        <v>0</v>
-      </c>
-      <c r="F96" s="13">
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G96" s="12">
-        <v>0</v>
-      </c>
-      <c r="H96" s="12">
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I96" s="12">
-        <v>0</v>
-      </c>
-      <c r="J96" s="12">
+      <c r="I96" s="11">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96" s="2" t="str">
@@ -4168,27 +4264,27 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="12">
-        <v>0</v>
-      </c>
-      <c r="E97" s="12">
-        <v>0</v>
-      </c>
-      <c r="F97" s="13">
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G97" s="12">
-        <v>0</v>
-      </c>
-      <c r="H97" s="12">
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I97" s="12">
-        <v>0</v>
-      </c>
-      <c r="J97" s="12">
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97" s="2" t="str">
@@ -4202,27 +4298,27 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="12">
-        <v>0</v>
-      </c>
-      <c r="E98" s="12">
-        <v>0</v>
-      </c>
-      <c r="F98" s="13">
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G98" s="12">
-        <v>0</v>
-      </c>
-      <c r="H98" s="12">
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I98" s="12">
-        <v>0</v>
-      </c>
-      <c r="J98" s="12">
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98" s="2" t="str">
@@ -4236,27 +4332,27 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="12">
-        <v>0</v>
-      </c>
-      <c r="E99" s="12">
-        <v>0</v>
-      </c>
-      <c r="F99" s="13">
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G99" s="12">
-        <v>0</v>
-      </c>
-      <c r="H99" s="12">
+      <c r="G99" s="11">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I99" s="12">
-        <v>0</v>
-      </c>
-      <c r="J99" s="12">
+      <c r="I99" s="11">
+        <v>0</v>
+      </c>
+      <c r="J99" s="11">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="str">
@@ -4270,27 +4366,27 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="12">
-        <v>0</v>
-      </c>
-      <c r="E100" s="12">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13">
+      <c r="D100" s="11">
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G100" s="12">
-        <v>0</v>
-      </c>
-      <c r="H100" s="12">
+      <c r="G100" s="11">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I100" s="12">
-        <v>0</v>
-      </c>
-      <c r="J100" s="12">
+      <c r="I100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
         <v>0</v>
       </c>
       <c r="K100" s="2" t="str">
@@ -4304,27 +4400,27 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="12">
-        <v>0</v>
-      </c>
-      <c r="E101" s="12">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13">
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
+      <c r="E101" s="11">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G101" s="12">
-        <v>0</v>
-      </c>
-      <c r="H101" s="12">
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I101" s="12">
-        <v>0</v>
-      </c>
-      <c r="J101" s="12">
+      <c r="I101" s="11">
+        <v>0</v>
+      </c>
+      <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101" s="2" t="str">
@@ -4338,27 +4434,27 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="12">
-        <v>0</v>
-      </c>
-      <c r="E102" s="12">
-        <v>0</v>
-      </c>
-      <c r="F102" s="13">
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G102" s="12">
-        <v>0</v>
-      </c>
-      <c r="H102" s="12">
+      <c r="G102" s="11">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I102" s="12">
-        <v>0</v>
-      </c>
-      <c r="J102" s="12">
+      <c r="I102" s="11">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102" s="2" t="str">
@@ -4372,27 +4468,27 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="12">
-        <v>0</v>
-      </c>
-      <c r="E103" s="12">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13">
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G103" s="12">
-        <v>0</v>
-      </c>
-      <c r="H103" s="12">
+      <c r="G103" s="11">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I103" s="12">
-        <v>0</v>
-      </c>
-      <c r="J103" s="12">
+      <c r="I103" s="11">
+        <v>0</v>
+      </c>
+      <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="str">
@@ -4406,27 +4502,27 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="12">
-        <v>0</v>
-      </c>
-      <c r="E104" s="12">
-        <v>0</v>
-      </c>
-      <c r="F104" s="13">
+      <c r="D104" s="11">
+        <v>0</v>
+      </c>
+      <c r="E104" s="11">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G104" s="12">
-        <v>0</v>
-      </c>
-      <c r="H104" s="12">
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I104" s="12">
-        <v>0</v>
-      </c>
-      <c r="J104" s="12">
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
         <v>0</v>
       </c>
       <c r="K104" s="2" t="str">
@@ -4440,27 +4536,27 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="12">
-        <v>0</v>
-      </c>
-      <c r="E105" s="12">
-        <v>0</v>
-      </c>
-      <c r="F105" s="13">
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
+      <c r="E105" s="11">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G105" s="12">
-        <v>0</v>
-      </c>
-      <c r="H105" s="12">
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I105" s="12">
-        <v>0</v>
-      </c>
-      <c r="J105" s="12">
+      <c r="I105" s="11">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11">
         <v>0</v>
       </c>
       <c r="K105" s="2" t="str">
@@ -4474,27 +4570,27 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="12">
-        <v>0</v>
-      </c>
-      <c r="E106" s="12">
-        <v>0</v>
-      </c>
-      <c r="F106" s="13">
+      <c r="D106" s="11">
+        <v>0</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G106" s="12">
-        <v>0</v>
-      </c>
-      <c r="H106" s="12">
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I106" s="12">
-        <v>0</v>
-      </c>
-      <c r="J106" s="12">
+      <c r="I106" s="11">
+        <v>0</v>
+      </c>
+      <c r="J106" s="11">
         <v>0</v>
       </c>
       <c r="K106" s="2" t="str">
@@ -4508,27 +4604,27 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="12">
-        <v>0</v>
-      </c>
-      <c r="E107" s="12">
-        <v>0</v>
-      </c>
-      <c r="F107" s="13">
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G107" s="12">
-        <v>0</v>
-      </c>
-      <c r="H107" s="12">
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I107" s="12">
-        <v>0</v>
-      </c>
-      <c r="J107" s="12">
+      <c r="I107" s="11">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
         <v>0</v>
       </c>
       <c r="K107" s="2" t="str">
@@ -4542,27 +4638,27 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="12">
-        <v>0</v>
-      </c>
-      <c r="E108" s="12">
-        <v>0</v>
-      </c>
-      <c r="F108" s="13">
+      <c r="D108" s="11">
+        <v>0</v>
+      </c>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G108" s="12">
-        <v>0</v>
-      </c>
-      <c r="H108" s="12">
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I108" s="12">
-        <v>0</v>
-      </c>
-      <c r="J108" s="12">
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
         <v>0</v>
       </c>
       <c r="K108" s="2" t="str">
@@ -4576,27 +4672,27 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="12">
-        <v>0</v>
-      </c>
-      <c r="E109" s="12">
-        <v>0</v>
-      </c>
-      <c r="F109" s="13">
+      <c r="D109" s="11">
+        <v>0</v>
+      </c>
+      <c r="E109" s="11">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G109" s="12">
-        <v>0</v>
-      </c>
-      <c r="H109" s="12">
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I109" s="12">
-        <v>0</v>
-      </c>
-      <c r="J109" s="12">
+      <c r="I109" s="11">
+        <v>0</v>
+      </c>
+      <c r="J109" s="11">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="str">
@@ -4610,27 +4706,27 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="12">
-        <v>0</v>
-      </c>
-      <c r="E110" s="12">
-        <v>0</v>
-      </c>
-      <c r="F110" s="13">
+      <c r="D110" s="11">
+        <v>0</v>
+      </c>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G110" s="12">
-        <v>0</v>
-      </c>
-      <c r="H110" s="12">
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I110" s="12">
-        <v>0</v>
-      </c>
-      <c r="J110" s="12">
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
         <v>0</v>
       </c>
       <c r="K110" s="2" t="str">
@@ -4644,27 +4740,27 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="12">
-        <v>0</v>
-      </c>
-      <c r="E111" s="12">
-        <v>0</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="D111" s="11">
+        <v>0</v>
+      </c>
+      <c r="E111" s="11">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G111" s="12">
-        <v>0</v>
-      </c>
-      <c r="H111" s="12">
+      <c r="G111" s="11">
+        <v>0</v>
+      </c>
+      <c r="H111" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I111" s="12">
-        <v>0</v>
-      </c>
-      <c r="J111" s="12">
+      <c r="I111" s="11">
+        <v>0</v>
+      </c>
+      <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111" s="2" t="str">
@@ -4678,27 +4774,27 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="12">
-        <v>0</v>
-      </c>
-      <c r="E112" s="12">
-        <v>0</v>
-      </c>
-      <c r="F112" s="13">
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G112" s="12">
-        <v>0</v>
-      </c>
-      <c r="H112" s="12">
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I112" s="12">
-        <v>0</v>
-      </c>
-      <c r="J112" s="12">
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
         <v>0</v>
       </c>
       <c r="K112" s="2" t="str">
@@ -4712,27 +4808,27 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="12">
-        <v>0</v>
-      </c>
-      <c r="E113" s="12">
-        <v>0</v>
-      </c>
-      <c r="F113" s="13">
+      <c r="D113" s="11">
+        <v>0</v>
+      </c>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G113" s="12">
-        <v>0</v>
-      </c>
-      <c r="H113" s="12">
+      <c r="G113" s="11">
+        <v>0</v>
+      </c>
+      <c r="H113" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I113" s="12">
-        <v>0</v>
-      </c>
-      <c r="J113" s="12">
+      <c r="I113" s="11">
+        <v>0</v>
+      </c>
+      <c r="J113" s="11">
         <v>0</v>
       </c>
       <c r="K113" s="2" t="str">
@@ -4746,27 +4842,27 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="12">
-        <v>0</v>
-      </c>
-      <c r="E114" s="12">
-        <v>0</v>
-      </c>
-      <c r="F114" s="13">
+      <c r="D114" s="11">
+        <v>0</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+      <c r="F114" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G114" s="12">
-        <v>0</v>
-      </c>
-      <c r="H114" s="12">
+      <c r="G114" s="11">
+        <v>0</v>
+      </c>
+      <c r="H114" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I114" s="12">
-        <v>0</v>
-      </c>
-      <c r="J114" s="12">
+      <c r="I114" s="11">
+        <v>0</v>
+      </c>
+      <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114" s="2" t="str">
@@ -4780,27 +4876,27 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="12">
-        <v>0</v>
-      </c>
-      <c r="E115" s="12">
-        <v>0</v>
-      </c>
-      <c r="F115" s="13">
+      <c r="D115" s="11">
+        <v>0</v>
+      </c>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G115" s="12">
-        <v>0</v>
-      </c>
-      <c r="H115" s="12">
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I115" s="12">
-        <v>0</v>
-      </c>
-      <c r="J115" s="12">
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115" s="2" t="str">
@@ -4814,27 +4910,27 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="12">
-        <v>0</v>
-      </c>
-      <c r="E116" s="12">
-        <v>0</v>
-      </c>
-      <c r="F116" s="13">
+      <c r="D116" s="11">
+        <v>0</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="12">
-        <v>0</v>
-      </c>
-      <c r="H116" s="12">
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I116" s="12">
-        <v>0</v>
-      </c>
-      <c r="J116" s="12">
+      <c r="I116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
         <v>0</v>
       </c>
       <c r="K116" s="2" t="str">
@@ -4848,27 +4944,27 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="12">
-        <v>0</v>
-      </c>
-      <c r="E117" s="12">
-        <v>0</v>
-      </c>
-      <c r="F117" s="13">
+      <c r="D117" s="11">
+        <v>0</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+      <c r="F117" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="12">
-        <v>0</v>
-      </c>
-      <c r="H117" s="12">
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I117" s="12">
-        <v>0</v>
-      </c>
-      <c r="J117" s="12">
+      <c r="I117" s="11">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11">
         <v>0</v>
       </c>
       <c r="K117" s="2" t="str">
@@ -4882,27 +4978,27 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="12">
-        <v>0</v>
-      </c>
-      <c r="E118" s="12">
-        <v>0</v>
-      </c>
-      <c r="F118" s="13">
+      <c r="D118" s="11">
+        <v>0</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="12">
-        <v>0</v>
-      </c>
-      <c r="H118" s="12">
+      <c r="G118" s="11">
+        <v>0</v>
+      </c>
+      <c r="H118" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I118" s="12">
-        <v>0</v>
-      </c>
-      <c r="J118" s="12">
+      <c r="I118" s="11">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11">
         <v>0</v>
       </c>
       <c r="K118" s="2" t="str">
@@ -4916,27 +5012,27 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="12">
-        <v>0</v>
-      </c>
-      <c r="E119" s="12">
-        <v>0</v>
-      </c>
-      <c r="F119" s="13">
+      <c r="D119" s="11">
+        <v>0</v>
+      </c>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G119" s="12">
-        <v>0</v>
-      </c>
-      <c r="H119" s="12">
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I119" s="12">
-        <v>0</v>
-      </c>
-      <c r="J119" s="12">
+      <c r="I119" s="11">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="str">
@@ -4950,27 +5046,27 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="12">
-        <v>0</v>
-      </c>
-      <c r="E120" s="12">
-        <v>0</v>
-      </c>
-      <c r="F120" s="13">
+      <c r="D120" s="11">
+        <v>0</v>
+      </c>
+      <c r="E120" s="11">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="12">
-        <v>0</v>
-      </c>
-      <c r="H120" s="12">
+      <c r="G120" s="11">
+        <v>0</v>
+      </c>
+      <c r="H120" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I120" s="12">
-        <v>0</v>
-      </c>
-      <c r="J120" s="12">
+      <c r="I120" s="11">
+        <v>0</v>
+      </c>
+      <c r="J120" s="11">
         <v>0</v>
       </c>
       <c r="K120" s="2" t="str">
@@ -4984,27 +5080,27 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="12">
-        <v>0</v>
-      </c>
-      <c r="E121" s="12">
-        <v>0</v>
-      </c>
-      <c r="F121" s="13">
+      <c r="D121" s="11">
+        <v>0</v>
+      </c>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="12">
-        <v>0</v>
-      </c>
-      <c r="H121" s="12">
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I121" s="12">
-        <v>0</v>
-      </c>
-      <c r="J121" s="12">
+      <c r="I121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
         <v>0</v>
       </c>
       <c r="K121" s="2" t="str">
@@ -5018,27 +5114,27 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="12">
-        <v>0</v>
-      </c>
-      <c r="E122" s="12">
-        <v>0</v>
-      </c>
-      <c r="F122" s="13">
+      <c r="D122" s="11">
+        <v>0</v>
+      </c>
+      <c r="E122" s="11">
+        <v>0</v>
+      </c>
+      <c r="F122" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="12">
-        <v>0</v>
-      </c>
-      <c r="H122" s="12">
+      <c r="G122" s="11">
+        <v>0</v>
+      </c>
+      <c r="H122" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I122" s="12">
-        <v>0</v>
-      </c>
-      <c r="J122" s="12">
+      <c r="I122" s="11">
+        <v>0</v>
+      </c>
+      <c r="J122" s="11">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="str">
@@ -5052,27 +5148,27 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="12">
-        <v>0</v>
-      </c>
-      <c r="E123" s="12">
-        <v>0</v>
-      </c>
-      <c r="F123" s="13">
+      <c r="D123" s="11">
+        <v>0</v>
+      </c>
+      <c r="E123" s="11">
+        <v>0</v>
+      </c>
+      <c r="F123" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="12">
-        <v>0</v>
-      </c>
-      <c r="H123" s="12">
+      <c r="G123" s="11">
+        <v>0</v>
+      </c>
+      <c r="H123" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I123" s="12">
-        <v>0</v>
-      </c>
-      <c r="J123" s="12">
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11">
         <v>0</v>
       </c>
       <c r="K123" s="2" t="str">
@@ -5086,27 +5182,27 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="12">
-        <v>0</v>
-      </c>
-      <c r="E124" s="12">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13">
+      <c r="D124" s="11">
+        <v>0</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+      <c r="F124" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G124" s="12">
-        <v>0</v>
-      </c>
-      <c r="H124" s="12">
+      <c r="G124" s="11">
+        <v>0</v>
+      </c>
+      <c r="H124" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I124" s="12">
-        <v>0</v>
-      </c>
-      <c r="J124" s="12">
+      <c r="I124" s="11">
+        <v>0</v>
+      </c>
+      <c r="J124" s="11">
         <v>0</v>
       </c>
       <c r="K124" s="2" t="str">
@@ -5120,27 +5216,27 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="12">
-        <v>0</v>
-      </c>
-      <c r="E125" s="12">
-        <v>0</v>
-      </c>
-      <c r="F125" s="13">
+      <c r="D125" s="11">
+        <v>0</v>
+      </c>
+      <c r="E125" s="11">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="12">
-        <v>0</v>
-      </c>
-      <c r="H125" s="12">
+      <c r="G125" s="11">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I125" s="12">
-        <v>0</v>
-      </c>
-      <c r="J125" s="12">
+      <c r="I125" s="11">
+        <v>0</v>
+      </c>
+      <c r="J125" s="11">
         <v>0</v>
       </c>
       <c r="K125" s="2" t="str">
@@ -5154,27 +5250,27 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="12">
-        <v>0</v>
-      </c>
-      <c r="E126" s="12">
-        <v>0</v>
-      </c>
-      <c r="F126" s="13">
+      <c r="D126" s="11">
+        <v>0</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0</v>
+      </c>
+      <c r="F126" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="12">
-        <v>0</v>
-      </c>
-      <c r="H126" s="12">
+      <c r="G126" s="11">
+        <v>0</v>
+      </c>
+      <c r="H126" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I126" s="12">
-        <v>0</v>
-      </c>
-      <c r="J126" s="12">
+      <c r="I126" s="11">
+        <v>0</v>
+      </c>
+      <c r="J126" s="11">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="str">
@@ -5188,27 +5284,27 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="12">
-        <v>0</v>
-      </c>
-      <c r="E127" s="12">
-        <v>0</v>
-      </c>
-      <c r="F127" s="13">
+      <c r="D127" s="11">
+        <v>0</v>
+      </c>
+      <c r="E127" s="11">
+        <v>0</v>
+      </c>
+      <c r="F127" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="12">
-        <v>0</v>
-      </c>
-      <c r="H127" s="12">
+      <c r="G127" s="11">
+        <v>0</v>
+      </c>
+      <c r="H127" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I127" s="12">
-        <v>0</v>
-      </c>
-      <c r="J127" s="12">
+      <c r="I127" s="11">
+        <v>0</v>
+      </c>
+      <c r="J127" s="11">
         <v>0</v>
       </c>
       <c r="K127" s="2" t="str">
@@ -5222,27 +5318,27 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="12">
-        <v>0</v>
-      </c>
-      <c r="E128" s="12">
-        <v>0</v>
-      </c>
-      <c r="F128" s="13">
+      <c r="D128" s="11">
+        <v>0</v>
+      </c>
+      <c r="E128" s="11">
+        <v>0</v>
+      </c>
+      <c r="F128" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="12">
-        <v>0</v>
-      </c>
-      <c r="H128" s="12">
+      <c r="G128" s="11">
+        <v>0</v>
+      </c>
+      <c r="H128" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I128" s="12">
-        <v>0</v>
-      </c>
-      <c r="J128" s="12">
+      <c r="I128" s="11">
+        <v>0</v>
+      </c>
+      <c r="J128" s="11">
         <v>0</v>
       </c>
       <c r="K128" s="2" t="str">
@@ -5256,27 +5352,27 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="12">
-        <v>0</v>
-      </c>
-      <c r="E129" s="12">
-        <v>0</v>
-      </c>
-      <c r="F129" s="13">
+      <c r="D129" s="11">
+        <v>0</v>
+      </c>
+      <c r="E129" s="11">
+        <v>0</v>
+      </c>
+      <c r="F129" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="12">
-        <v>0</v>
-      </c>
-      <c r="H129" s="12">
+      <c r="G129" s="11">
+        <v>0</v>
+      </c>
+      <c r="H129" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I129" s="12">
-        <v>0</v>
-      </c>
-      <c r="J129" s="12">
+      <c r="I129" s="11">
+        <v>0</v>
+      </c>
+      <c r="J129" s="11">
         <v>0</v>
       </c>
       <c r="K129" s="2" t="str">
@@ -5285,32 +5381,34 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="2"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
@@ -5320,8 +5418,8 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
@@ -5333,8 +5431,8 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
@@ -5346,38 +5444,39 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="12"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="11"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="C135:H135"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B131:J131"/>
-    <mergeCell ref="A4:K5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="G131:K131"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:K129">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Reprovado">
